--- a/xlsx/triangle_cubic.xlsx
+++ b/xlsx/triangle_cubic.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,13 +633,13 @@
         <v>-1.1397414193381172</v>
       </c>
       <c r="D2">
-        <v>-0.60411760302913842</v>
+        <v>-0.563452073850064</v>
       </c>
       <c r="E2">
-        <v>-2.2788736060582702</v>
+        <v>-2.4163316839277527</v>
       </c>
       <c r="F2">
-        <v>-1.9401044526667901</v>
+        <v>-2.217750733002646</v>
       </c>
       <c r="G2">
         <v>-2.3640954703130452</v>
@@ -656,13 +656,13 @@
         <v>-1.4892050452018719</v>
       </c>
       <c r="D3">
-        <v>-0.82094711907676721</v>
+        <v>-0.7669198697868994</v>
       </c>
       <c r="E3">
-        <v>-3.3981839677641368</v>
+        <v>-3.465610467773193</v>
       </c>
       <c r="F3">
-        <v>-3.3049935388952334</v>
+        <v>-3.3282267124409524</v>
       </c>
       <c r="G3">
         <v>-3.5260297839580823</v>
@@ -679,13 +679,13 @@
         <v>-1.606890873316583</v>
       </c>
       <c r="D4">
-        <v>-1.1384133126829943</v>
+        <v>-1.0936467138646577</v>
       </c>
       <c r="E4">
-        <v>-4.7594828162663481</v>
+        <v>-4.7125960029205265</v>
       </c>
       <c r="F4">
-        <v>-4.6967541874400922</v>
+        <v>-4.715817019932536</v>
       </c>
       <c r="G4">
         <v>-4.8079214500466998</v>
@@ -702,13 +702,13 @@
         <v>-1.9094059080630164</v>
       </c>
       <c r="D5">
-        <v>-1.6491519841267748</v>
+        <v>-1.5022490735202805</v>
       </c>
       <c r="E5">
-        <v>-6.0084992515065547</v>
+        <v>-5.996552852245329</v>
       </c>
       <c r="F5">
-        <v>-6.0134714254548953</v>
+        <v>-6.008508083747711</v>
       </c>
       <c r="G5">
         <v>-6.0842599266706321</v>
@@ -779,13 +779,13 @@
         <v>-1.0201135770913976</v>
       </c>
       <c r="D2">
-        <v>-0.5746969977120534</v>
+        <v>-0.5329303446980072</v>
       </c>
       <c r="E2">
-        <v>-1.9990231272073098</v>
+        <v>-2.0319917967068455</v>
       </c>
       <c r="F2">
-        <v>-1.7989709092973298</v>
+        <v>-1.9735912507621873</v>
       </c>
       <c r="G2">
         <v>-2.0333268432808871</v>
@@ -802,13 +802,13 @@
         <v>-1.1867819417182472</v>
       </c>
       <c r="D3">
-        <v>-0.78966060218131728</v>
+        <v>-0.7384758876172662</v>
       </c>
       <c r="E3">
-        <v>-2.9209564692197301</v>
+        <v>-2.942735192633136</v>
       </c>
       <c r="F3">
-        <v>-2.8726892781440472</v>
+        <v>-2.870427535815476</v>
       </c>
       <c r="G3">
         <v>-2.9571502328974288</v>
@@ -825,13 +825,13 @@
         <v>-1.3132620802294754</v>
       </c>
       <c r="D4">
-        <v>-1.0992079837104045</v>
+        <v>-1.0588436763884903</v>
       </c>
       <c r="E4">
-        <v>-3.942591641927506</v>
+        <v>-3.929655100796533</v>
       </c>
       <c r="F4">
-        <v>-3.9222601663927512</v>
+        <v>-3.9285634589879175</v>
       </c>
       <c r="G4">
         <v>-3.9442328111018088</v>
@@ -848,13 +848,13 @@
         <v>-1.6271295400121817</v>
       </c>
       <c r="D5">
-        <v>-1.5741173775424906</v>
+        <v>-1.4538585336024799</v>
       </c>
       <c r="E5">
-        <v>-4.9533666623963182</v>
+        <v>-4.957625015359322</v>
       </c>
       <c r="F5">
-        <v>-4.9550057275222121</v>
+        <v>-4.9533698334334515</v>
       </c>
       <c r="G5">
         <v>-4.9580038528857262</v>
@@ -922,13 +922,13 @@
         <v>-0.87425417310724085</v>
       </c>
       <c r="D2">
-        <v>-0.57259573982659795</v>
+        <v>-0.5209251266007736</v>
       </c>
       <c r="E2">
-        <v>-1.4205613459331681</v>
+        <v>-1.4268145926484885</v>
       </c>
       <c r="F2">
-        <v>-1.3654229846771579</v>
+        <v>-1.4153197485808247</v>
       </c>
       <c r="G2">
         <v>-1.4265850602818451</v>
@@ -948,13 +948,13 @@
         <v>-0.95964787030447174</v>
       </c>
       <c r="D3">
-        <v>-0.75842204574537819</v>
+        <v>-0.7117462820524078</v>
       </c>
       <c r="E3">
-        <v>-1.9202760422433851</v>
+        <v>-1.9227058671348836</v>
       </c>
       <c r="F3">
-        <v>-1.9147438447296004</v>
+        <v>-1.9155672741815535</v>
       </c>
       <c r="G3">
         <v>-1.9226369995662549</v>
@@ -974,13 +974,13 @@
         <v>-0.9939626818105155</v>
       </c>
       <c r="D4">
-        <v>-0.97523447049153111</v>
+        <v>-0.9475431971326279</v>
       </c>
       <c r="E4">
-        <v>-2.475191109660754</v>
+        <v>-2.4744591290731943</v>
       </c>
       <c r="F4">
-        <v>-2.4740672652092819</v>
+        <v>-2.4745187306358063</v>
       </c>
       <c r="G4">
         <v>-2.4741403315989543</v>
@@ -1000,13 +1000,13 @@
         <v>-1.1477921077659301</v>
       </c>
       <c r="D5">
-        <v>-1.1852599067179979</v>
+        <v>-1.1299121027206653</v>
       </c>
       <c r="E5">
-        <v>-3.0510705996101715</v>
+        <v>-3.0512185060466224</v>
       </c>
       <c r="F5">
-        <v>-3.0511194827755674</v>
+        <v>-3.0510705528982163</v>
       </c>
       <c r="G5">
         <v>-3.0506703409632405</v>
@@ -1076,13 +1076,13 @@
         <v>-0.72638496365110594</v>
       </c>
       <c r="D2">
-        <v>-0.53099756301376766</v>
+        <v>-0.47196489956843063</v>
       </c>
       <c r="E2">
-        <v>-1.0950062751441141</v>
+        <v>-1.097911238755584</v>
       </c>
       <c r="F2">
-        <v>-1.0598063447084975</v>
+        <v>-1.0892720916824097</v>
       </c>
       <c r="G2">
         <v>-1.0965079557489299</v>
@@ -1102,13 +1102,13 @@
         <v>-0.47171948196254893</v>
       </c>
       <c r="D3">
-        <v>-0.372651460851321</v>
+        <v>-0.3325756009323608</v>
       </c>
       <c r="E3">
-        <v>-1.4909278441268377</v>
+        <v>-1.4953933155013823</v>
       </c>
       <c r="F3">
-        <v>-1.4832814965145833</v>
+        <v>-1.489983693887434</v>
       </c>
       <c r="G3">
         <v>-1.4943412559548175</v>
@@ -1128,13 +1128,13 @@
         <v>-7.286824883674077E-2</v>
       </c>
       <c r="D4">
-        <v>-5.8593864257381521E-2</v>
+        <v>-0.04191286509261263</v>
       </c>
       <c r="E4">
-        <v>-1.9283529814773956</v>
+        <v>-1.9242072488263957</v>
       </c>
       <c r="F4">
-        <v>-1.9223416704072713</v>
+        <v>-1.9233421371905313</v>
       </c>
       <c r="G4">
         <v>-1.9257704479993487</v>
@@ -1154,13 +1154,13 @@
         <v>0.17757820767651272</v>
       </c>
       <c r="D5">
-        <v>0.18239686387438606</v>
+        <v>0.23322255635853553</v>
       </c>
       <c r="E5">
-        <v>-2.3705275267986066</v>
+        <v>-2.3721531223663512</v>
       </c>
       <c r="F5">
-        <v>-2.3709883913012941</v>
+        <v>-2.3705285459153083</v>
       </c>
       <c r="G5">
         <v>-2.3678728635434458</v>

--- a/xlsx/triangle_cubic.xlsx
+++ b/xlsx/triangle_cubic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/code/hrrk-plate/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876813E-41A0-0841-99F7-C2C0C4E77826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3BF9AA-0E97-4B62-93DF-5BB75D20B8E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="26595" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -25,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,28 +99,12 @@
     <t>assembly Γᵍ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>GI6-Penalty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GI6-Nitsche</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GI16-Penalty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GI16-Nitsche</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,7 +494,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -573,6 +549,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -581,31 +558,31 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -624,7 +601,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-1.1603767092256874</v>
+        <v>-0.42148216148957646</v>
       </c>
       <c r="B2">
         <v>-0.58970945559223276</v>
@@ -633,21 +610,21 @@
         <v>-1.1397414193381172</v>
       </c>
       <c r="D2">
-        <v>-0.563452073850064</v>
+        <v>-0.4431050509454605</v>
       </c>
       <c r="E2">
-        <v>-2.4163316839277527</v>
+        <v>-2.321849776043548</v>
       </c>
       <c r="F2">
-        <v>-2.217750733002646</v>
+        <v>-2.6997724224135586</v>
       </c>
       <c r="G2">
-        <v>-2.3640954703130452</v>
+        <v>-2.8461510699515102</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-1.4690740101128767</v>
+        <v>-0.7491482105996375</v>
       </c>
       <c r="B3">
         <v>-0.80677654189494141</v>
@@ -656,21 +633,21 @@
         <v>-1.4892050452018719</v>
       </c>
       <c r="D3">
-        <v>-0.7669198697868994</v>
+        <v>-0.7502798621100789</v>
       </c>
       <c r="E3">
-        <v>-3.465610467773193</v>
+        <v>-3.3031870808721684</v>
       </c>
       <c r="F3">
-        <v>-3.3282267124409524</v>
+        <v>-4.061381128627291</v>
       </c>
       <c r="G3">
-        <v>-3.5260297839580823</v>
+        <v>-4.1789873023586335</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-1.5911585125439627</v>
+        <v>-0.91267400765593</v>
       </c>
       <c r="B4">
         <v>-1.1200785997417186</v>
@@ -679,21 +656,21 @@
         <v>-1.606890873316583</v>
       </c>
       <c r="D4">
-        <v>-1.0936467138646577</v>
+        <v>-0.9129991058681282</v>
       </c>
       <c r="E4">
-        <v>-4.7125960029205265</v>
+        <v>-4.289646097486224</v>
       </c>
       <c r="F4">
-        <v>-4.715817019932536</v>
+        <v>-5.349213278376956</v>
       </c>
       <c r="G4">
-        <v>-4.8079214500466998</v>
+        <v>-5.496565120848155</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-1.9210020514112509</v>
+        <v>-1.2040121230428262</v>
       </c>
       <c r="B5">
         <v>-1.604201476279477</v>
@@ -702,16 +679,16 @@
         <v>-1.9094059080630164</v>
       </c>
       <c r="D5">
-        <v>-1.5022490735202805</v>
+        <v>-1.204002780806689</v>
       </c>
       <c r="E5">
-        <v>-5.996552852245329</v>
+        <v>-5.288217786265329</v>
       </c>
       <c r="F5">
-        <v>-6.008508083747711</v>
+        <v>-6.657486721807963</v>
       </c>
       <c r="G5">
-        <v>-6.0842599266706321</v>
+        <v>-6.7463649681737206</v>
       </c>
     </row>
   </sheetData>
@@ -731,15 +708,15 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -770,7 +747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-1.0325186417651289</v>
+        <v>-0.38642402914553836</v>
       </c>
       <c r="B2">
         <v>-0.56112087647519604</v>
@@ -779,21 +756,21 @@
         <v>-1.0201135770913976</v>
       </c>
       <c r="D2">
-        <v>-0.5329303446980072</v>
+        <v>-0.40676511598403137</v>
       </c>
       <c r="E2">
-        <v>-2.0319917967068455</v>
+        <v>-2.0211686237020077</v>
       </c>
       <c r="F2">
-        <v>-1.9735912507621873</v>
+        <v>-2.0466262498305072</v>
       </c>
       <c r="G2">
-        <v>-2.0333268432808871</v>
+        <v>-2.0480703466787857</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-1.1754419861193179</v>
+        <v>-0.720943394800854</v>
       </c>
       <c r="B3">
         <v>-0.77537520293086859</v>
@@ -802,21 +779,21 @@
         <v>-1.1867819417182472</v>
       </c>
       <c r="D3">
-        <v>-0.7384758876172662</v>
+        <v>-0.722098342442785</v>
       </c>
       <c r="E3">
-        <v>-2.942735192633136</v>
+        <v>-2.8400757198752364</v>
       </c>
       <c r="F3">
-        <v>-2.870427535815476</v>
+        <v>-2.8623868142863125</v>
       </c>
       <c r="G3">
-        <v>-2.9571502328974288</v>
+        <v>-2.855618616605304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-1.3038431217905309</v>
+        <v>-0.8515285911345262</v>
       </c>
       <c r="B4">
         <v>-1.082014747232471</v>
@@ -825,21 +802,21 @@
         <v>-1.3132620802294754</v>
       </c>
       <c r="D4">
-        <v>-1.0588436763884903</v>
+        <v>-0.851829517583686</v>
       </c>
       <c r="E4">
-        <v>-3.929655100796533</v>
+        <v>-3.803189335627677</v>
       </c>
       <c r="F4">
-        <v>-3.9285634589879175</v>
+        <v>-3.8235406581714084</v>
       </c>
       <c r="G4">
-        <v>-3.9442328111018088</v>
+        <v>-3.8172990962614834</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.6134309186271933</v>
+        <v>-1.135078863893189</v>
       </c>
       <c r="B5">
         <v>-1.529768183186786</v>
@@ -848,16 +825,16 @@
         <v>-1.6271295400121817</v>
       </c>
       <c r="D5">
-        <v>-1.4538585336024799</v>
+        <v>-1.1350695611562158</v>
       </c>
       <c r="E5">
-        <v>-4.957625015359322</v>
+        <v>-4.821815947061836</v>
       </c>
       <c r="F5">
-        <v>-4.9533698334334515</v>
+        <v>-4.844340680777776</v>
       </c>
       <c r="G5">
-        <v>-4.9580038528857262</v>
+        <v>-4.8370883455439975</v>
       </c>
     </row>
   </sheetData>
@@ -874,13 +851,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
@@ -913,7 +890,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.87994344169091798</v>
+        <v>-0.39109186110507044</v>
       </c>
       <c r="B2">
         <v>-0.55838469646880051</v>
@@ -922,16 +899,16 @@
         <v>-0.87425417310724085</v>
       </c>
       <c r="D2">
-        <v>-0.5209251266007736</v>
+        <v>-0.4113351762800982</v>
       </c>
       <c r="E2">
-        <v>-1.4268145926484885</v>
+        <v>-1.3768337434068403</v>
       </c>
       <c r="F2">
-        <v>-1.4153197485808247</v>
+        <v>-1.375460801127257</v>
       </c>
       <c r="G2">
-        <v>-1.4265850602818451</v>
+        <v>-1.372707114967089</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -939,7 +916,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.95276218850972194</v>
+        <v>-0.7084081613870562</v>
       </c>
       <c r="B3">
         <v>-0.7444315179596962</v>
@@ -948,16 +925,16 @@
         <v>-0.95964787030447174</v>
       </c>
       <c r="D3">
-        <v>-0.7117462820524078</v>
+        <v>-0.7095638851336512</v>
       </c>
       <c r="E3">
-        <v>-1.9227058671348836</v>
+        <v>-1.7994187322910198</v>
       </c>
       <c r="F3">
-        <v>-1.9155672741815535</v>
+        <v>-1.7995829149779445</v>
       </c>
       <c r="G3">
-        <v>-1.9226369995662549</v>
+        <v>-1.7975821018954257</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -965,7 +942,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.987191304873414</v>
+        <v>-0.7412460868555985</v>
       </c>
       <c r="B4">
         <v>-0.96185070688088281</v>
@@ -974,16 +951,16 @@
         <v>-0.9939626818105155</v>
       </c>
       <c r="D4">
-        <v>-0.9475431971326279</v>
+        <v>-0.7415101114406739</v>
       </c>
       <c r="E4">
-        <v>-2.4744591290731943</v>
+        <v>-2.3130139359702695</v>
       </c>
       <c r="F4">
-        <v>-2.4745187306358063</v>
+        <v>-2.3129376778873967</v>
       </c>
       <c r="G4">
-        <v>-2.4741403315989543</v>
+        <v>-2.31225394827019</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -991,7 +968,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-1.1158316519874349</v>
+        <v>-0.8397819560665328</v>
       </c>
       <c r="B5">
         <v>-1.1413631490332585</v>
@@ -1000,16 +977,16 @@
         <v>-1.1477921077659301</v>
       </c>
       <c r="D5">
-        <v>-1.1299121027206653</v>
+        <v>-0.8397725456178623</v>
       </c>
       <c r="E5">
-        <v>-3.0512185060466224</v>
+        <v>-2.873078620243441</v>
       </c>
       <c r="F5">
-        <v>-3.0510705528982163</v>
+        <v>-2.8730738126376427</v>
       </c>
       <c r="G5">
-        <v>-3.0506703409632405</v>
+        <v>-2.8727363335734335</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1029,14 +1006,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1067,7 +1044,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.72906123125273081</v>
+        <v>-0.3609636675256522</v>
       </c>
       <c r="B2">
         <v>-0.51665780452419929</v>
@@ -1076,16 +1053,16 @@
         <v>-0.72638496365110594</v>
       </c>
       <c r="D2">
-        <v>-0.47196489956843063</v>
+        <v>-0.3817686400660682</v>
       </c>
       <c r="E2">
-        <v>-1.097911238755584</v>
+        <v>-1.0348597909357948</v>
       </c>
       <c r="F2">
-        <v>-1.0892720916824097</v>
+        <v>-1.0323003395511536</v>
       </c>
       <c r="G2">
-        <v>-1.0965079557489299</v>
+        <v>-1.032625480144353</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1093,7 +1070,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.45773271533105392</v>
+        <v>-0.47500054525002383</v>
       </c>
       <c r="B3">
         <v>-0.35444697133487013</v>
@@ -1102,16 +1079,16 @@
         <v>-0.47171948196254893</v>
       </c>
       <c r="D3">
-        <v>-0.3325756009323608</v>
+        <v>-0.4767707754757213</v>
       </c>
       <c r="E3">
-        <v>-1.4953933155013823</v>
+        <v>-1.4009741066223154</v>
       </c>
       <c r="F3">
-        <v>-1.489983693887434</v>
+        <v>-1.401302595166664</v>
       </c>
       <c r="G3">
-        <v>-1.4943412559548175</v>
+        <v>-1.3992741368678077</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1119,7 +1096,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-6.0572837241104342E-2</v>
+        <v>0.12002319000606422</v>
       </c>
       <c r="B4">
         <v>-4.6646148061134513E-2</v>
@@ -1128,16 +1105,16 @@
         <v>-7.286824883674077E-2</v>
       </c>
       <c r="D4">
-        <v>-0.04191286509261263</v>
+        <v>0.11976027459152679</v>
       </c>
       <c r="E4">
-        <v>-1.9242072488263957</v>
+        <v>-1.8210957461831598</v>
       </c>
       <c r="F4">
-        <v>-1.9233421371905313</v>
+        <v>-1.8208267900286266</v>
       </c>
       <c r="G4">
-        <v>-1.9257704479993487</v>
+        <v>-1.8195458280297023</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1145,7 +1122,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.22480815867767434</v>
+        <v>0.45248641886322416</v>
       </c>
       <c r="B5">
         <v>0.23055058258509478</v>
@@ -1154,16 +1131,16 @@
         <v>0.17757820767651272</v>
       </c>
       <c r="D5">
-        <v>0.23322255635853553</v>
+        <v>0.452496099602181</v>
       </c>
       <c r="E5">
-        <v>-2.3721531223663512</v>
+        <v>-2.263295741782412</v>
       </c>
       <c r="F5">
-        <v>-2.3705285459153083</v>
+        <v>-2.26315775926616</v>
       </c>
       <c r="G5">
-        <v>-2.3678728635434458</v>
+        <v>-2.261326630681245</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1183,13 +1160,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/xlsx/triangle_cubic.xlsx
+++ b/xlsx/triangle_cubic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\code\hrbc-plate\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wujc/program/hrbc-plate/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3BF9AA-0E97-4B62-93DF-5BB75D20B8E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA89DC8-5036-A940-A3E3-0B1E36742E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="26595" activeTab="1" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="5" xr2:uid="{D4E3DD03-E574-2D45-87B1-2218C6EC4385}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="5" r:id="rId1"/>
@@ -25,12 +25,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>log₁₀h</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,14 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shape functions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assembly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>shape functions Γ</t>
     </r>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,17 +158,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -480,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -494,7 +488,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -557,16 +551,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5357BA77-AC59-9943-8B53-4516BD1B37CC}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
   </cols>
@@ -593,15 +587,15 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>-0.42148216148957646</v>
+        <v>-0.58032213880411865</v>
       </c>
       <c r="B2">
         <v>-0.58970945559223276</v>
@@ -610,21 +604,21 @@
         <v>-1.1397414193381172</v>
       </c>
       <c r="D2">
-        <v>-0.4431050509454605</v>
+        <v>-0.57879305736459929</v>
       </c>
       <c r="E2">
-        <v>-2.321849776043548</v>
+        <v>-2.5685285428553661</v>
       </c>
       <c r="F2">
-        <v>-2.6997724224135586</v>
+        <v>-2.538030829205137</v>
       </c>
       <c r="G2">
-        <v>-2.8461510699515102</v>
+        <v>-2.7574155443954065</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>-0.7491482105996375</v>
+        <v>-1.0555993791605742</v>
       </c>
       <c r="B3">
         <v>-0.80677654189494141</v>
@@ -633,21 +627,21 @@
         <v>-1.4892050452018719</v>
       </c>
       <c r="D3">
-        <v>-0.7502798621100789</v>
+        <v>-1.0554218051185564</v>
       </c>
       <c r="E3">
-        <v>-3.3031870808721684</v>
+        <v>-3.896067911680408</v>
       </c>
       <c r="F3">
-        <v>-4.061381128627291</v>
+        <v>-3.8859233705357381</v>
       </c>
       <c r="G3">
-        <v>-4.1789873023586335</v>
+        <v>-4.0785596608943235</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>-0.91267400765593</v>
+        <v>-1.6444147507976206</v>
       </c>
       <c r="B4">
         <v>-1.1200785997417186</v>
@@ -656,21 +650,21 @@
         <v>-1.606890873316583</v>
       </c>
       <c r="D4">
-        <v>-0.9129991058681282</v>
+        <v>-1.6447628599467381</v>
       </c>
       <c r="E4">
-        <v>-4.289646097486224</v>
+        <v>-5.1374129519264224</v>
       </c>
       <c r="F4">
-        <v>-5.349213278376956</v>
+        <v>-5.1229229145422348</v>
       </c>
       <c r="G4">
-        <v>-5.496565120848155</v>
+        <v>-5.4159768608847223</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>-1.2040121230428262</v>
+        <v>-2.2399967606459437</v>
       </c>
       <c r="B5">
         <v>-1.604201476279477</v>
@@ -679,16 +673,16 @@
         <v>-1.9094059080630164</v>
       </c>
       <c r="D5">
-        <v>-1.204002780806689</v>
+        <v>-2.239977651022379</v>
       </c>
       <c r="E5">
-        <v>-5.288217786265329</v>
+        <v>-5.291796576880576</v>
       </c>
       <c r="F5">
-        <v>-6.657486721807963</v>
+        <v>-6.51333052401921</v>
       </c>
       <c r="G5">
-        <v>-6.7463649681737206</v>
+        <v>-6.752526873134497</v>
       </c>
     </row>
   </sheetData>
@@ -702,24 +696,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B4B654-5763-AF48-A7F2-52B537A84F56}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -741,13 +735,10 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
-        <v>-0.38642402914553836</v>
+        <v>-0.55481306177364409</v>
       </c>
       <c r="B2">
         <v>-0.56112087647519604</v>
@@ -756,21 +747,21 @@
         <v>-1.0201135770913976</v>
       </c>
       <c r="D2">
-        <v>-0.40676511598403137</v>
+        <v>-0.55285049609478909</v>
       </c>
       <c r="E2">
-        <v>-2.0211686237020077</v>
+        <v>-2.176772333851416</v>
       </c>
       <c r="F2">
-        <v>-2.0466262498305072</v>
+        <v>-2.1727158132234252</v>
       </c>
       <c r="G2">
-        <v>-2.0480703466787857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>-2.2049822740498524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
-        <v>-0.720943394800854</v>
+        <v>-1.037728382675267</v>
       </c>
       <c r="B3">
         <v>-0.77537520293086859</v>
@@ -779,21 +770,21 @@
         <v>-1.1867819417182472</v>
       </c>
       <c r="D3">
-        <v>-0.722098342442785</v>
+        <v>-1.0375013642593487</v>
       </c>
       <c r="E3">
-        <v>-2.8400757198752364</v>
+        <v>-3.1564088649600563</v>
       </c>
       <c r="F3">
-        <v>-2.8623868142863125</v>
+        <v>-3.1579251094431138</v>
       </c>
       <c r="G3">
-        <v>-2.855618616605304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>-3.1515343217101877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
-        <v>-0.8515285911345262</v>
+        <v>-1.6275553673632179</v>
       </c>
       <c r="B4">
         <v>-1.082014747232471</v>
@@ -802,21 +793,21 @@
         <v>-1.3132620802294754</v>
       </c>
       <c r="D4">
-        <v>-0.851829517583686</v>
+        <v>-1.6279789774748388</v>
       </c>
       <c r="E4">
-        <v>-3.803189335627677</v>
+        <v>-4.1647787313521523</v>
       </c>
       <c r="F4">
-        <v>-3.8235406581714084</v>
+        <v>-4.1308233013867213</v>
       </c>
       <c r="G4">
-        <v>-3.8172990962614834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-4.1500632247821025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
-        <v>-1.135078863893189</v>
+        <v>-2.224788796966467</v>
       </c>
       <c r="B5">
         <v>-1.529768183186786</v>
@@ -825,16 +816,16 @@
         <v>-1.6271295400121817</v>
       </c>
       <c r="D5">
-        <v>-1.1350695611562158</v>
+        <v>-2.2247678859840243</v>
       </c>
       <c r="E5">
-        <v>-4.821815947061836</v>
+        <v>-5.108013990920418</v>
       </c>
       <c r="F5">
-        <v>-4.844340680777776</v>
+        <v>-5.176696886965285</v>
       </c>
       <c r="G5">
-        <v>-4.8370883455439975</v>
+        <v>-5.1763043029310545</v>
       </c>
     </row>
   </sheetData>
@@ -851,13 +842,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
@@ -884,13 +875,13 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.39109186110507044</v>
+        <v>-0.55775407030574409</v>
       </c>
       <c r="B2">
         <v>-0.55838469646880051</v>
@@ -899,16 +890,16 @@
         <v>-0.87425417310724085</v>
       </c>
       <c r="D2">
-        <v>-0.4113351762800982</v>
+        <v>-0.55565269768110337</v>
       </c>
       <c r="E2">
-        <v>-1.3768337434068403</v>
+        <v>-1.4635542849660483</v>
       </c>
       <c r="F2">
-        <v>-1.375460801127257</v>
+        <v>-1.4633034411434482</v>
       </c>
       <c r="G2">
-        <v>-1.372707114967089</v>
+        <v>-1.4629302264366717</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -916,7 +907,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.7084081613870562</v>
+        <v>-1.0249445654946192</v>
       </c>
       <c r="B3">
         <v>-0.7444315179596962</v>
@@ -925,16 +916,16 @@
         <v>-0.95964787030447174</v>
       </c>
       <c r="D3">
-        <v>-0.7095638851336512</v>
+        <v>-1.0246493795520939</v>
       </c>
       <c r="E3">
-        <v>-1.7994187322910198</v>
+        <v>-1.9399109234822625</v>
       </c>
       <c r="F3">
-        <v>-1.7995829149779445</v>
+        <v>-1.9399054923945531</v>
       </c>
       <c r="G3">
-        <v>-1.7975821018954257</v>
+        <v>-1.9382545699679741</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -942,7 +933,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>-0.7412460868555985</v>
+        <v>-1.5730905763199357</v>
       </c>
       <c r="B4">
         <v>-0.96185070688088281</v>
@@ -951,16 +942,16 @@
         <v>-0.9939626818105155</v>
       </c>
       <c r="D4">
-        <v>-0.7415101114406739</v>
+        <v>-1.5738068858740155</v>
       </c>
       <c r="E4">
-        <v>-2.3130139359702695</v>
+        <v>-2.4777977104909499</v>
       </c>
       <c r="F4">
-        <v>-2.3129376778873967</v>
+        <v>-2.4771143083783995</v>
       </c>
       <c r="G4">
-        <v>-2.31225394827019</v>
+        <v>-2.4768575219951607</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -968,7 +959,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>-0.8397819560665328</v>
+        <v>-2.0772202306272765</v>
       </c>
       <c r="B5">
         <v>-1.1413631490332585</v>
@@ -977,16 +968,16 @@
         <v>-1.1477921077659301</v>
       </c>
       <c r="D5">
-        <v>-0.8397725456178623</v>
+        <v>-2.0771580234950537</v>
       </c>
       <c r="E5">
-        <v>-2.873078620243441</v>
+        <v>-3.0484895001431673</v>
       </c>
       <c r="F5">
-        <v>-2.8730738126376427</v>
+        <v>-3.0482880810826276</v>
       </c>
       <c r="G5">
-        <v>-2.8727363335734335</v>
+        <v>-3.047972719178731</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1006,14 +997,14 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="3" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1038,13 +1029,13 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>-0.3609636675256522</v>
+        <v>-0.51228247889047307</v>
       </c>
       <c r="B2">
         <v>-0.51665780452419929</v>
@@ -1053,16 +1044,16 @@
         <v>-0.72638496365110594</v>
       </c>
       <c r="D2">
-        <v>-0.3817686400660682</v>
+        <v>-0.50907355576470847</v>
       </c>
       <c r="E2">
-        <v>-1.0348597909357948</v>
+        <v>-1.1364709756190832</v>
       </c>
       <c r="F2">
-        <v>-1.0323003395511536</v>
+        <v>-1.1364337603416594</v>
       </c>
       <c r="G2">
-        <v>-1.032625480144353</v>
+        <v>-1.1328947049241747</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1070,7 +1061,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>-0.47500054525002383</v>
+        <v>-0.81056940596446114</v>
       </c>
       <c r="B3">
         <v>-0.35444697133487013</v>
@@ -1079,16 +1070,16 @@
         <v>-0.47171948196254893</v>
       </c>
       <c r="D3">
-        <v>-0.4767707754757213</v>
+        <v>-0.80977241367806507</v>
       </c>
       <c r="E3">
-        <v>-1.4009741066223154</v>
+        <v>-1.5350064426347398</v>
       </c>
       <c r="F3">
-        <v>-1.401302595166664</v>
+        <v>-1.5351306872292119</v>
       </c>
       <c r="G3">
-        <v>-1.3992741368678077</v>
+        <v>-1.5307660617023717</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1096,7 +1087,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.12002319000606422</v>
+        <v>-0.96404400594628281</v>
       </c>
       <c r="B4">
         <v>-4.6646148061134513E-2</v>
@@ -1105,16 +1096,16 @@
         <v>-7.286824883674077E-2</v>
       </c>
       <c r="D4">
-        <v>0.11976027459152679</v>
+        <v>-0.96750867840849464</v>
       </c>
       <c r="E4">
-        <v>-1.8210957461831598</v>
+        <v>-1.967994235296648</v>
       </c>
       <c r="F4">
-        <v>-1.8208267900286266</v>
+        <v>-1.9640279830100262</v>
       </c>
       <c r="G4">
-        <v>-1.8195458280297023</v>
+        <v>-1.9631784300265458</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1122,7 +1113,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.45248641886322416</v>
+        <v>-1.0409381403331344</v>
       </c>
       <c r="B5">
         <v>0.23055058258509478</v>
@@ -1131,16 +1122,16 @@
         <v>0.17757820767651272</v>
       </c>
       <c r="D5">
-        <v>0.452496099602181</v>
+        <v>-1.0408477939756744</v>
       </c>
       <c r="E5">
-        <v>-2.263295741782412</v>
+        <v>-2.413677764100151</v>
       </c>
       <c r="F5">
-        <v>-2.26315775926616</v>
+        <v>-2.4109556932784066</v>
       </c>
       <c r="G5">
-        <v>-2.261326630681245</v>
+        <v>-2.4079450544182275</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1154,152 +1145,162 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97888836-164C-094F-BF6D-4F7F72F4BBB5}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="19.875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="C2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D2">
-        <v>14.8</v>
-      </c>
-      <c r="E2">
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
-      </c>
-      <c r="D3">
-        <v>15.8</v>
-      </c>
-      <c r="E3">
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>0.06</v>
       </c>
       <c r="C4">
-        <v>1.9E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>63.2</v>
+        <v>82</v>
       </c>
       <c r="E4">
-        <v>0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>3.7</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>0.06</v>
       </c>
       <c r="C5">
-        <v>0.17499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="D5">
-        <v>67.900000000000006</v>
+        <v>80</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C6">
-        <v>6.5000000000000002E-2</v>
+        <v>0.2</v>
       </c>
       <c r="D6">
-        <v>14.5</v>
+        <v>29.1</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.93</v>
+      </c>
+      <c r="G6">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0.06</v>
       </c>
       <c r="C7">
-        <v>3.2000000000000001E-2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>15.2</v>
+        <v>29.1</v>
       </c>
       <c r="E7">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0.08</v>
       </c>
       <c r="C8">
-        <v>5.0999999999999997E-2</v>
+        <v>0.23</v>
       </c>
       <c r="D8">
-        <v>14.6</v>
+        <v>24.6</v>
       </c>
       <c r="E8">
-        <v>0.23</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
